--- a/Purchasing Role/Purchasing_Dashboard.xlsx
+++ b/Purchasing Role/Purchasing_Dashboard.xlsx
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="7" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -628,16 +628,16 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -652,16 +652,16 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E8" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -676,16 +676,16 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" s="7" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -700,16 +700,16 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -724,16 +724,16 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D11" s="7" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E11" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -767,10 +767,10 @@
         </is>
       </c>
       <c r="B16" s="7" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="C16" s="6" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -780,10 +780,10 @@
         </is>
       </c>
       <c r="B17" s="7" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="C17" s="6" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -793,10 +793,10 @@
         </is>
       </c>
       <c r="B18" s="7" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="C18" s="6" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -806,10 +806,10 @@
         </is>
       </c>
       <c r="B19" s="7" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="C19" s="6" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -819,10 +819,10 @@
         </is>
       </c>
       <c r="B20" s="7" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C20" s="6" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -832,10 +832,10 @@
         </is>
       </c>
       <c r="B21" s="7" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="C21" s="6" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1056,28 +1056,28 @@
         </is>
       </c>
       <c r="B6" s="6" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="C6" s="6" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1421,7 +1421,7 @@
     <row r="27">
       <c r="A27" s="5" t="inlineStr">
         <is>
-          <t>Order Supplier A (Lead:1, Batch:500)</t>
+          <t>Order Supplier A (Lead:0, Batch:0)</t>
         </is>
       </c>
       <c r="B27" s="6" t="n">
@@ -1452,7 +1452,7 @@
     <row r="28">
       <c r="A28" s="5" t="inlineStr">
         <is>
-          <t>Order Supplier B (Lead:2, Batch:1000)</t>
+          <t>Order Supplier B (Lead:0, Batch:0)</t>
         </is>
       </c>
       <c r="B28" s="6" t="n">
@@ -1483,7 +1483,7 @@
     <row r="29">
       <c r="A29" s="5" t="inlineStr">
         <is>
-          <t>Order Supplier C (Lead:3, Batch:2000)</t>
+          <t>Order Supplier C (Lead:0, Batch:0)</t>
         </is>
       </c>
       <c r="B29" s="6" t="n">
@@ -1568,7 +1568,7 @@
     <row r="33">
       <c r="A33" s="5" t="inlineStr">
         <is>
-          <t>Order Supplier A (Lead:1, Batch:300)</t>
+          <t>Order Supplier A (Lead:0, Batch:0)</t>
         </is>
       </c>
       <c r="B33" s="6" t="n">
@@ -1599,7 +1599,7 @@
     <row r="34">
       <c r="A34" s="5" t="inlineStr">
         <is>
-          <t>Order Supplier B (Lead:2, Batch:600)</t>
+          <t>Order Supplier B (Lead:0, Batch:0)</t>
         </is>
       </c>
       <c r="B34" s="6" t="n">
@@ -1630,7 +1630,7 @@
     <row r="35">
       <c r="A35" s="5" t="inlineStr">
         <is>
-          <t>Order Supplier C (Lead:3, Batch:1200)</t>
+          <t>Order Supplier C (Lead:0, Batch:0)</t>
         </is>
       </c>
       <c r="B35" s="6" t="n">

--- a/Purchasing Role/Purchasing_Dashboard.xlsx
+++ b/Purchasing Role/Purchasing_Dashboard.xlsx
@@ -115,7 +115,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -142,7 +142,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="165" fontId="5" fillId="6" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="165" fontId="5" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -152,7 +151,7 @@
     <dxf>
       <font>
         <b val="1"/>
-        <color rgb="009C0006"/>
+        <color rgb="00FFFFFF"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -232,6 +231,396 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="12"/>
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Inventory Sawtooth &amp; Stockout Risk</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <v>Part A Inv</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'MRP_ENGINE'!$B$5:$I$5</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'MRP_ENGINE'!$B$14:$I$14</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <v>Part B Inv</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'MRP_ENGINE'!$B$5:$I$5</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'MRP_ENGINE'!$B$26:$I$26</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="2"/>
+          <order val="2"/>
+          <tx>
+            <v>Stockout Line</v>
+          </tx>
+          <spPr>
+            <a:ln w="20000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'MRP_ENGINE'!$B$5:$I$5</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'MRP_ENGINE'!$B$40:$I$40</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Fortnight</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Inventory Units</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="10"/>
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Cash Drain Heatmap by Supplier</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="stacked"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <v>Supplier A</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'CASH_FLOW_PREVIEW'!$B$5:$I$5</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'CASH_FLOW_PREVIEW'!$B$6:$I$6</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <v>Supplier B</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'CASH_FLOW_PREVIEW'!$B$5:$I$5</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'CASH_FLOW_PREVIEW'!$B$7:$I$7</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="2"/>
+          <order val="2"/>
+          <tx>
+            <v>Supplier C</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'CASH_FLOW_PREVIEW'!$B$5:$I$5</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'CASH_FLOW_PREVIEW'!$B$8:$I$8</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <overlap val="100"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Fortnight</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Cash Outflow ($)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>10</col>
+      <colOff>0</colOff>
+      <row>1</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="7200000" cy="4320000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>11</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="3600000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -959,6 +1348,15 @@
   <mergeCells count="1">
     <mergeCell ref="A17:D20"/>
   </mergeCells>
+  <conditionalFormatting sqref="B11">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="00638EC6"/>
+      </dataBar>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -969,7 +1367,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1243,55 +1641,47 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="15" t="inlineStr">
-        <is>
-          <t>PART B</t>
+      <c r="A17" s="19" t="inlineStr">
+        <is>
+          <t>ORDERS FOR PART A</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="5" t="inlineStr">
         <is>
-          <t>Gross Requirement</t>
-        </is>
-      </c>
-      <c r="B18" s="16">
-        <f>$B$6</f>
-        <v/>
-      </c>
-      <c r="C18" s="16">
-        <f>$B$6</f>
-        <v/>
-      </c>
-      <c r="D18" s="16">
-        <f>$B$6</f>
-        <v/>
-      </c>
-      <c r="E18" s="16">
-        <f>$B$6</f>
-        <v/>
-      </c>
-      <c r="F18" s="16">
-        <f>$B$6</f>
-        <v/>
-      </c>
-      <c r="G18" s="16">
-        <f>$B$6</f>
-        <v/>
-      </c>
-      <c r="H18" s="16">
-        <f>$B$6</f>
-        <v/>
-      </c>
-      <c r="I18" s="16">
-        <f>$B$6</f>
-        <v/>
+          <t>Order Supplier A (Lead:0, Batch:0)</t>
+        </is>
+      </c>
+      <c r="B18" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="5" t="inlineStr">
         <is>
-          <t>Scheduled Arrivals</t>
+          <t>Order Supplier B (Lead:0, Batch:0)</t>
         </is>
       </c>
       <c r="B19" s="6" t="n">
@@ -1322,387 +1712,318 @@
     <row r="20">
       <c r="A20" s="5" t="inlineStr">
         <is>
+          <t>Order Supplier C (Lead:0, Batch:0)</t>
+        </is>
+      </c>
+      <c r="B20" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="15" t="inlineStr">
+        <is>
+          <t>PART B</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="5" t="inlineStr">
+        <is>
+          <t>Gross Requirement</t>
+        </is>
+      </c>
+      <c r="B24" s="16">
+        <f>$B$6</f>
+        <v/>
+      </c>
+      <c r="C24" s="16">
+        <f>$B$6</f>
+        <v/>
+      </c>
+      <c r="D24" s="16">
+        <f>$B$6</f>
+        <v/>
+      </c>
+      <c r="E24" s="16">
+        <f>$B$6</f>
+        <v/>
+      </c>
+      <c r="F24" s="16">
+        <f>$B$6</f>
+        <v/>
+      </c>
+      <c r="G24" s="16">
+        <f>$B$6</f>
+        <v/>
+      </c>
+      <c r="H24" s="16">
+        <f>$B$6</f>
+        <v/>
+      </c>
+      <c r="I24" s="16">
+        <f>$B$6</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="5" t="inlineStr">
+        <is>
+          <t>Scheduled Arrivals</t>
+        </is>
+      </c>
+      <c r="B25" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="5" t="inlineStr">
+        <is>
           <t>Projected Inventory</t>
         </is>
       </c>
-      <c r="B20" s="17">
-        <f>0.0+B19-B18</f>
-        <v/>
-      </c>
-      <c r="C20" s="17">
-        <f>B20+C19-C18</f>
-        <v/>
-      </c>
-      <c r="D20" s="17">
-        <f>C20+D19-D18</f>
-        <v/>
-      </c>
-      <c r="E20" s="17">
-        <f>D20+E19-E18</f>
-        <v/>
-      </c>
-      <c r="F20" s="17">
-        <f>E20+F19-F18</f>
-        <v/>
-      </c>
-      <c r="G20" s="17">
-        <f>F20+G19-G18</f>
-        <v/>
-      </c>
-      <c r="H20" s="17">
-        <f>G20+H19-H18</f>
-        <v/>
-      </c>
-      <c r="I20" s="17">
-        <f>H20+I19-I18</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="5" t="inlineStr">
-        <is>
-          <t>Net Deficit (if negative)</t>
-        </is>
-      </c>
-      <c r="B21" s="18">
-        <f>IF(B20&lt;0, -B20, 0)</f>
-        <v/>
-      </c>
-      <c r="C21" s="18">
-        <f>IF(C20&lt;0, -C20, 0)</f>
-        <v/>
-      </c>
-      <c r="D21" s="18">
-        <f>IF(D20&lt;0, -D20, 0)</f>
-        <v/>
-      </c>
-      <c r="E21" s="18">
-        <f>IF(E20&lt;0, -E20, 0)</f>
-        <v/>
-      </c>
-      <c r="F21" s="18">
-        <f>IF(F20&lt;0, -F20, 0)</f>
-        <v/>
-      </c>
-      <c r="G21" s="18">
-        <f>IF(G20&lt;0, -G20, 0)</f>
-        <v/>
-      </c>
-      <c r="H21" s="18">
-        <f>IF(H20&lt;0, -H20, 0)</f>
-        <v/>
-      </c>
-      <c r="I21" s="18">
-        <f>IF(I20&lt;0, -I20, 0)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="3" t="inlineStr">
-        <is>
-          <t>SECTION C: SOURCING STRATEGY (Order Inputs)</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="inlineStr">
-        <is>
-          <t>NOTE: Orders arrive AFTER Lead Time. Enter in the FN you want to ORDER, not when it arrives.</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="19" t="inlineStr">
-        <is>
-          <t>ORDERS FOR PART A</t>
-        </is>
+      <c r="B26" s="17">
+        <f>0.0+B25-B24</f>
+        <v/>
+      </c>
+      <c r="C26" s="17">
+        <f>B26+C25-C24</f>
+        <v/>
+      </c>
+      <c r="D26" s="17">
+        <f>C26+D25-D24</f>
+        <v/>
+      </c>
+      <c r="E26" s="17">
+        <f>D26+E25-E24</f>
+        <v/>
+      </c>
+      <c r="F26" s="17">
+        <f>E26+F25-F24</f>
+        <v/>
+      </c>
+      <c r="G26" s="17">
+        <f>F26+G25-G24</f>
+        <v/>
+      </c>
+      <c r="H26" s="17">
+        <f>G26+H25-H24</f>
+        <v/>
+      </c>
+      <c r="I26" s="17">
+        <f>H26+I25-I24</f>
+        <v/>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="5" t="inlineStr">
         <is>
-          <t>Order Supplier A (Lead:0, Batch:0)</t>
-        </is>
-      </c>
-      <c r="B27" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C27" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D27" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E27" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G27" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="5" t="inlineStr">
-        <is>
-          <t>Order Supplier B (Lead:0, Batch:0)</t>
-        </is>
-      </c>
-      <c r="B28" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C28" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D28" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" s="6" t="n">
-        <v>0</v>
+          <t>Net Deficit (if negative)</t>
+        </is>
+      </c>
+      <c r="B27" s="18">
+        <f>IF(B26&lt;0, -B26, 0)</f>
+        <v/>
+      </c>
+      <c r="C27" s="18">
+        <f>IF(C26&lt;0, -C26, 0)</f>
+        <v/>
+      </c>
+      <c r="D27" s="18">
+        <f>IF(D26&lt;0, -D26, 0)</f>
+        <v/>
+      </c>
+      <c r="E27" s="18">
+        <f>IF(E26&lt;0, -E26, 0)</f>
+        <v/>
+      </c>
+      <c r="F27" s="18">
+        <f>IF(F26&lt;0, -F26, 0)</f>
+        <v/>
+      </c>
+      <c r="G27" s="18">
+        <f>IF(G26&lt;0, -G26, 0)</f>
+        <v/>
+      </c>
+      <c r="H27" s="18">
+        <f>IF(H26&lt;0, -H26, 0)</f>
+        <v/>
+      </c>
+      <c r="I27" s="18">
+        <f>IF(I26&lt;0, -I26, 0)</f>
+        <v/>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="5" t="inlineStr">
-        <is>
-          <t>Order Supplier C (Lead:0, Batch:0)</t>
-        </is>
-      </c>
-      <c r="B29" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C29" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" s="6" t="n">
-        <v>0</v>
+      <c r="A29" s="19" t="inlineStr">
+        <is>
+          <t>ORDERS FOR PART B</t>
+        </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="5" t="inlineStr">
         <is>
-          <t>Batch Compliance Check</t>
-        </is>
-      </c>
-      <c r="B30" s="17" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="C30" s="17" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="D30" s="17" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="E30" s="17" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="F30" s="17" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="G30" s="17" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="H30" s="17" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="I30" s="17" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
+          <t>Order Supplier A (Lead:0, Batch:0)</t>
+        </is>
+      </c>
+      <c r="B30" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="5" t="inlineStr">
+        <is>
+          <t>Order Supplier B (Lead:0, Batch:0)</t>
+        </is>
+      </c>
+      <c r="B31" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="19" t="inlineStr">
-        <is>
-          <t>ORDERS FOR PART B</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="5" t="inlineStr">
-        <is>
-          <t>Order Supplier A (Lead:0, Batch:0)</t>
-        </is>
-      </c>
-      <c r="B33" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C33" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D33" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E33" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G33" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H33" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="5" t="inlineStr">
-        <is>
-          <t>Order Supplier B (Lead:0, Batch:0)</t>
-        </is>
-      </c>
-      <c r="B34" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C34" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D34" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E34" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="5" t="inlineStr">
+      <c r="A32" s="5" t="inlineStr">
         <is>
           <t>Order Supplier C (Lead:0, Batch:0)</t>
         </is>
       </c>
-      <c r="B35" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C35" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D35" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="5" t="inlineStr">
-        <is>
-          <t>Batch Compliance Check</t>
-        </is>
-      </c>
-      <c r="B36" s="17" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="C36" s="17" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="D36" s="17" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="E36" s="17" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="F36" s="17" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="G36" s="17" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="H36" s="17" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="I36" s="17" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
+      <c r="B32" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" hidden="1">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Stockout Limit</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1711,12 +2032,13 @@
       <formula>B14&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B20:I20">
+  <conditionalFormatting sqref="B26:I26">
     <cfRule type="expression" priority="2" dxfId="0">
-      <formula>B20&lt;0</formula>
+      <formula>B26&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1726,7 +2048,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1756,14 +2078,14 @@
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>ESTIMATED OUTFLOW BY FORTNIGHT</t>
+          <t>ESTIMATED OUTFLOW BY SUPPLIER</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="13" t="inlineStr">
         <is>
-          <t>Category</t>
+          <t>Supplier</t>
         </is>
       </c>
       <c r="B5" s="13" t="inlineStr">
@@ -1815,32 +2137,40 @@
     <row r="6">
       <c r="A6" s="5" t="inlineStr">
         <is>
-          <t>Part A Orders</t>
-        </is>
-      </c>
-      <c r="B6" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" s="9" t="n">
-        <v>0</v>
+          <t>Supplier A</t>
+        </is>
+      </c>
+      <c r="B6" s="9">
+        <f>MRP_ENGINE!B18+MRP_ENGINE!B30</f>
+        <v/>
+      </c>
+      <c r="C6" s="9">
+        <f>MRP_ENGINE!C18+MRP_ENGINE!C30</f>
+        <v/>
+      </c>
+      <c r="D6" s="9">
+        <f>MRP_ENGINE!D18+MRP_ENGINE!D30</f>
+        <v/>
+      </c>
+      <c r="E6" s="9">
+        <f>MRP_ENGINE!E18+MRP_ENGINE!E30</f>
+        <v/>
+      </c>
+      <c r="F6" s="9">
+        <f>MRP_ENGINE!F18+MRP_ENGINE!F30</f>
+        <v/>
+      </c>
+      <c r="G6" s="9">
+        <f>MRP_ENGINE!G18+MRP_ENGINE!G30</f>
+        <v/>
+      </c>
+      <c r="H6" s="9">
+        <f>MRP_ENGINE!H18+MRP_ENGINE!H30</f>
+        <v/>
+      </c>
+      <c r="I6" s="9">
+        <f>MRP_ENGINE!I18+MRP_ENGINE!I30</f>
+        <v/>
       </c>
       <c r="J6" s="9">
         <f>SUM(B6:I6)</f>
@@ -1850,32 +2180,40 @@
     <row r="7">
       <c r="A7" s="5" t="inlineStr">
         <is>
-          <t>Part B Orders</t>
-        </is>
-      </c>
-      <c r="B7" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="9" t="n">
-        <v>0</v>
+          <t>Supplier B</t>
+        </is>
+      </c>
+      <c r="B7" s="9">
+        <f>MRP_ENGINE!B19+MRP_ENGINE!B31</f>
+        <v/>
+      </c>
+      <c r="C7" s="9">
+        <f>MRP_ENGINE!C19+MRP_ENGINE!C31</f>
+        <v/>
+      </c>
+      <c r="D7" s="9">
+        <f>MRP_ENGINE!D19+MRP_ENGINE!D31</f>
+        <v/>
+      </c>
+      <c r="E7" s="9">
+        <f>MRP_ENGINE!E19+MRP_ENGINE!E31</f>
+        <v/>
+      </c>
+      <c r="F7" s="9">
+        <f>MRP_ENGINE!F19+MRP_ENGINE!F31</f>
+        <v/>
+      </c>
+      <c r="G7" s="9">
+        <f>MRP_ENGINE!G19+MRP_ENGINE!G31</f>
+        <v/>
+      </c>
+      <c r="H7" s="9">
+        <f>MRP_ENGINE!H19+MRP_ENGINE!H31</f>
+        <v/>
+      </c>
+      <c r="I7" s="9">
+        <f>MRP_ENGINE!I19+MRP_ENGINE!I31</f>
+        <v/>
       </c>
       <c r="J7" s="9">
         <f>SUM(B7:I7)</f>
@@ -1885,34 +2223,42 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>Pieces Orders</t>
-        </is>
-      </c>
-      <c r="B8" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" s="5">
+          <t>Supplier C</t>
+        </is>
+      </c>
+      <c r="B8" s="9">
+        <f>MRP_ENGINE!B20+MRP_ENGINE!B32</f>
+        <v/>
+      </c>
+      <c r="C8" s="9">
+        <f>MRP_ENGINE!C20+MRP_ENGINE!C32</f>
+        <v/>
+      </c>
+      <c r="D8" s="9">
+        <f>MRP_ENGINE!D20+MRP_ENGINE!D32</f>
+        <v/>
+      </c>
+      <c r="E8" s="9">
+        <f>MRP_ENGINE!E20+MRP_ENGINE!E32</f>
+        <v/>
+      </c>
+      <c r="F8" s="9">
+        <f>MRP_ENGINE!F20+MRP_ENGINE!F32</f>
+        <v/>
+      </c>
+      <c r="G8" s="9">
+        <f>MRP_ENGINE!G20+MRP_ENGINE!G32</f>
+        <v/>
+      </c>
+      <c r="H8" s="9">
+        <f>MRP_ENGINE!H20+MRP_ENGINE!H32</f>
+        <v/>
+      </c>
+      <c r="I8" s="9">
+        <f>MRP_ENGINE!I20+MRP_ENGINE!I32</f>
+        <v/>
+      </c>
+      <c r="J8" s="9">
         <f>SUM(B8:I8)</f>
         <v/>
       </c>
@@ -1960,86 +2306,48 @@
         <v/>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="19" t="inlineStr">
-        <is>
-          <t>CUMULATIVE SPEND</t>
-        </is>
-      </c>
-      <c r="B10" s="22">
-        <f>B9</f>
-        <v/>
-      </c>
-      <c r="C10" s="22">
-        <f>B10+C9</f>
-        <v/>
-      </c>
-      <c r="D10" s="22">
-        <f>C10+D9</f>
-        <v/>
-      </c>
-      <c r="E10" s="22">
-        <f>D10+E9</f>
-        <v/>
-      </c>
-      <c r="F10" s="22">
-        <f>E10+F9</f>
-        <v/>
-      </c>
-      <c r="G10" s="22">
-        <f>F10+G9</f>
-        <v/>
-      </c>
-      <c r="H10" s="22">
-        <f>G10+H9</f>
-        <v/>
-      </c>
-      <c r="I10" s="22">
-        <f>H10+I9</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="3" t="inlineStr">
+    <row r="29">
+      <c r="A29" s="3" t="inlineStr">
         <is>
           <t>BUDGET TRACKING</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="5" t="inlineStr">
+    <row r="30">
+      <c r="A30" s="5" t="inlineStr">
         <is>
           <t>Total Budget</t>
         </is>
       </c>
-      <c r="B14" s="23" t="n">
+      <c r="B30" s="22" t="n">
         <v>100000</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="5" t="inlineStr">
+    <row r="31">
+      <c r="A31" s="5" t="inlineStr">
         <is>
           <t>Total Projected Spend</t>
         </is>
       </c>
-      <c r="B15" s="9">
+      <c r="B31" s="9">
         <f>J9</f>
         <v/>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="5" t="inlineStr">
+    <row r="32">
+      <c r="A32" s="5" t="inlineStr">
         <is>
           <t>Remaining Budget</t>
         </is>
       </c>
-      <c r="B16" s="20">
-        <f>B14-B15</f>
+      <c r="B32" s="20">
+        <f>B30-B31</f>
         <v/>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2194,35 +2502,35 @@
         </is>
       </c>
       <c r="D6" s="6">
-        <f>MRP_ENGINE!B27</f>
+        <f>MRP_ENGINE!B18</f>
         <v/>
       </c>
       <c r="E6" s="6">
-        <f>MRP_ENGINE!C27</f>
+        <f>MRP_ENGINE!C18</f>
         <v/>
       </c>
       <c r="F6" s="6">
-        <f>MRP_ENGINE!D27</f>
+        <f>MRP_ENGINE!D18</f>
         <v/>
       </c>
       <c r="G6" s="6">
-        <f>MRP_ENGINE!E27</f>
+        <f>MRP_ENGINE!E18</f>
         <v/>
       </c>
       <c r="H6" s="6">
-        <f>MRP_ENGINE!F27</f>
+        <f>MRP_ENGINE!F18</f>
         <v/>
       </c>
       <c r="I6" s="6">
-        <f>MRP_ENGINE!G27</f>
+        <f>MRP_ENGINE!G18</f>
         <v/>
       </c>
       <c r="J6" s="6">
-        <f>MRP_ENGINE!H27</f>
+        <f>MRP_ENGINE!H18</f>
         <v/>
       </c>
       <c r="K6" s="6">
-        <f>MRP_ENGINE!I27</f>
+        <f>MRP_ENGINE!I18</f>
         <v/>
       </c>
       <c r="R6" s="5" t="inlineStr">
@@ -2261,35 +2569,35 @@
         </is>
       </c>
       <c r="D7" s="6">
-        <f>MRP_ENGINE!B33</f>
+        <f>MRP_ENGINE!B30</f>
         <v/>
       </c>
       <c r="E7" s="6">
-        <f>MRP_ENGINE!C33</f>
+        <f>MRP_ENGINE!C30</f>
         <v/>
       </c>
       <c r="F7" s="6">
-        <f>MRP_ENGINE!D33</f>
+        <f>MRP_ENGINE!D30</f>
         <v/>
       </c>
       <c r="G7" s="6">
-        <f>MRP_ENGINE!E33</f>
+        <f>MRP_ENGINE!E30</f>
         <v/>
       </c>
       <c r="H7" s="6">
-        <f>MRP_ENGINE!F33</f>
+        <f>MRP_ENGINE!F30</f>
         <v/>
       </c>
       <c r="I7" s="6">
-        <f>MRP_ENGINE!G33</f>
+        <f>MRP_ENGINE!G30</f>
         <v/>
       </c>
       <c r="J7" s="6">
-        <f>MRP_ENGINE!H33</f>
+        <f>MRP_ENGINE!H30</f>
         <v/>
       </c>
       <c r="K7" s="6">
-        <f>MRP_ENGINE!I33</f>
+        <f>MRP_ENGINE!I30</f>
         <v/>
       </c>
       <c r="R7" s="5" t="inlineStr">
@@ -2328,35 +2636,35 @@
         </is>
       </c>
       <c r="D8" s="6">
-        <f>MRP_ENGINE!B28</f>
+        <f>MRP_ENGINE!B19</f>
         <v/>
       </c>
       <c r="E8" s="6">
-        <f>MRP_ENGINE!C28</f>
+        <f>MRP_ENGINE!C19</f>
         <v/>
       </c>
       <c r="F8" s="6">
-        <f>MRP_ENGINE!D28</f>
+        <f>MRP_ENGINE!D19</f>
         <v/>
       </c>
       <c r="G8" s="6">
-        <f>MRP_ENGINE!E28</f>
+        <f>MRP_ENGINE!E19</f>
         <v/>
       </c>
       <c r="H8" s="6">
-        <f>MRP_ENGINE!F28</f>
+        <f>MRP_ENGINE!F19</f>
         <v/>
       </c>
       <c r="I8" s="6">
-        <f>MRP_ENGINE!G28</f>
+        <f>MRP_ENGINE!G19</f>
         <v/>
       </c>
       <c r="J8" s="6">
-        <f>MRP_ENGINE!H28</f>
+        <f>MRP_ENGINE!H19</f>
         <v/>
       </c>
       <c r="K8" s="6">
-        <f>MRP_ENGINE!I28</f>
+        <f>MRP_ENGINE!I19</f>
         <v/>
       </c>
       <c r="R8" s="5" t="inlineStr">
@@ -2395,35 +2703,35 @@
         </is>
       </c>
       <c r="D9" s="6">
-        <f>MRP_ENGINE!B34</f>
+        <f>MRP_ENGINE!B31</f>
         <v/>
       </c>
       <c r="E9" s="6">
-        <f>MRP_ENGINE!C34</f>
+        <f>MRP_ENGINE!C31</f>
         <v/>
       </c>
       <c r="F9" s="6">
-        <f>MRP_ENGINE!D34</f>
+        <f>MRP_ENGINE!D31</f>
         <v/>
       </c>
       <c r="G9" s="6">
-        <f>MRP_ENGINE!E34</f>
+        <f>MRP_ENGINE!E31</f>
         <v/>
       </c>
       <c r="H9" s="6">
-        <f>MRP_ENGINE!F34</f>
+        <f>MRP_ENGINE!F31</f>
         <v/>
       </c>
       <c r="I9" s="6">
-        <f>MRP_ENGINE!G34</f>
+        <f>MRP_ENGINE!G31</f>
         <v/>
       </c>
       <c r="J9" s="6">
-        <f>MRP_ENGINE!H34</f>
+        <f>MRP_ENGINE!H31</f>
         <v/>
       </c>
       <c r="K9" s="6">
-        <f>MRP_ENGINE!I34</f>
+        <f>MRP_ENGINE!I31</f>
         <v/>
       </c>
       <c r="R9" s="5" t="inlineStr">
@@ -2462,35 +2770,35 @@
         </is>
       </c>
       <c r="D10" s="6">
-        <f>MRP_ENGINE!B29</f>
+        <f>MRP_ENGINE!B20</f>
         <v/>
       </c>
       <c r="E10" s="6">
-        <f>MRP_ENGINE!C29</f>
+        <f>MRP_ENGINE!C20</f>
         <v/>
       </c>
       <c r="F10" s="6">
-        <f>MRP_ENGINE!D29</f>
+        <f>MRP_ENGINE!D20</f>
         <v/>
       </c>
       <c r="G10" s="6">
-        <f>MRP_ENGINE!E29</f>
+        <f>MRP_ENGINE!E20</f>
         <v/>
       </c>
       <c r="H10" s="6">
-        <f>MRP_ENGINE!F29</f>
+        <f>MRP_ENGINE!F20</f>
         <v/>
       </c>
       <c r="I10" s="6">
-        <f>MRP_ENGINE!G29</f>
+        <f>MRP_ENGINE!G20</f>
         <v/>
       </c>
       <c r="J10" s="6">
-        <f>MRP_ENGINE!H29</f>
+        <f>MRP_ENGINE!H20</f>
         <v/>
       </c>
       <c r="K10" s="6">
-        <f>MRP_ENGINE!I29</f>
+        <f>MRP_ENGINE!I20</f>
         <v/>
       </c>
       <c r="R10" s="5" t="inlineStr">
@@ -2529,35 +2837,35 @@
         </is>
       </c>
       <c r="D11" s="6">
-        <f>MRP_ENGINE!B35</f>
+        <f>MRP_ENGINE!B32</f>
         <v/>
       </c>
       <c r="E11" s="6">
-        <f>MRP_ENGINE!C35</f>
+        <f>MRP_ENGINE!C32</f>
         <v/>
       </c>
       <c r="F11" s="6">
-        <f>MRP_ENGINE!D35</f>
+        <f>MRP_ENGINE!D32</f>
         <v/>
       </c>
       <c r="G11" s="6">
-        <f>MRP_ENGINE!E35</f>
+        <f>MRP_ENGINE!E32</f>
         <v/>
       </c>
       <c r="H11" s="6">
-        <f>MRP_ENGINE!F35</f>
+        <f>MRP_ENGINE!F32</f>
         <v/>
       </c>
       <c r="I11" s="6">
-        <f>MRP_ENGINE!G35</f>
+        <f>MRP_ENGINE!G32</f>
         <v/>
       </c>
       <c r="J11" s="6">
-        <f>MRP_ENGINE!H35</f>
+        <f>MRP_ENGINE!H32</f>
         <v/>
       </c>
       <c r="K11" s="6">
-        <f>MRP_ENGINE!I35</f>
+        <f>MRP_ENGINE!I32</f>
         <v/>
       </c>
       <c r="R11" s="5" t="inlineStr">

--- a/Purchasing Role/Purchasing_Dashboard.xlsx
+++ b/Purchasing Role/Purchasing_Dashboard.xlsx
@@ -115,7 +115,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -132,6 +132,8 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
@@ -147,7 +149,15 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="00FFC7CE"/>
+          <bgColor rgb="00FFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="1"/>
@@ -996,7 +1006,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="7" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E6" s="6" t="n">
         <v>0</v>
@@ -1020,7 +1030,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="7" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E7" s="6" t="n">
         <v>0</v>
@@ -1044,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="7" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E8" s="6" t="n">
         <v>0</v>
@@ -1068,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="D9" s="7" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E9" s="6" t="n">
         <v>0</v>
@@ -1092,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="D10" s="7" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E10" s="6" t="n">
         <v>0</v>
@@ -1116,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="D11" s="7" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E11" s="6" t="n">
         <v>0</v>
@@ -1156,7 +1166,7 @@
         </is>
       </c>
       <c r="B16" s="7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C16" s="6" t="n">
         <v>0</v>
@@ -1169,7 +1179,7 @@
         </is>
       </c>
       <c r="B17" s="7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C17" s="6" t="n">
         <v>0</v>
@@ -1182,7 +1192,7 @@
         </is>
       </c>
       <c r="B18" s="7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C18" s="6" t="n">
         <v>0</v>
@@ -1195,7 +1205,7 @@
         </is>
       </c>
       <c r="B19" s="7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C19" s="6" t="n">
         <v>0</v>
@@ -1208,7 +1218,7 @@
         </is>
       </c>
       <c r="B20" s="7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C20" s="6" t="n">
         <v>0</v>
@@ -1221,7 +1231,7 @@
         </is>
       </c>
       <c r="B21" s="7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C21" s="6" t="n">
         <v>0</v>
@@ -1238,7 +1248,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1247,7 +1257,10 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="25" customWidth="1" min="1" max="1"/>
-    <col width="50" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1271,7 +1284,7 @@
         </is>
       </c>
       <c r="B5" s="8" t="n">
-        <v>24244</v>
+        <v>56542</v>
       </c>
     </row>
     <row r="6">
@@ -1281,7 +1294,7 @@
         </is>
       </c>
       <c r="B6" s="8" t="n">
-        <v>3572</v>
+        <v>30422</v>
       </c>
     </row>
     <row r="7">
@@ -1344,6 +1357,84 @@
     <row r="18"/>
     <row r="19"/>
     <row r="20"/>
+    <row r="22">
+      <c r="A22" s="3" t="inlineStr">
+        <is>
+          <t>MATERIAL COST ANALYZER</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="13" t="inlineStr">
+        <is>
+          <t>Item</t>
+        </is>
+      </c>
+      <c r="B23" s="13" t="inlineStr">
+        <is>
+          <t>Avg Supplier Cost</t>
+        </is>
+      </c>
+      <c r="C23" s="13" t="inlineStr">
+        <is>
+          <t>BOM Target</t>
+        </is>
+      </c>
+      <c r="D23" s="13" t="inlineStr">
+        <is>
+          <t>Variance %</t>
+        </is>
+      </c>
+      <c r="E23" s="13" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="5" t="inlineStr">
+        <is>
+          <t>Part A</t>
+        </is>
+      </c>
+      <c r="B24" s="14">
+        <f>AVERAGE(SUPPLIER_CONFIG!D6:D8)</f>
+        <v/>
+      </c>
+      <c r="C24" s="14" t="n">
+        <v>15</v>
+      </c>
+      <c r="D24" s="15">
+        <f>IF(C24&gt;0, (B24-C24)/C24, 0)</f>
+        <v/>
+      </c>
+      <c r="E24" s="11">
+        <f>IF(B24&gt;C24, "OVER BUDGET", "OK")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="5" t="inlineStr">
+        <is>
+          <t>Part B</t>
+        </is>
+      </c>
+      <c r="B25" s="14">
+        <f>AVERAGE(SUPPLIER_CONFIG!D9:D11)</f>
+        <v/>
+      </c>
+      <c r="C25" s="14" t="n">
+        <v>25</v>
+      </c>
+      <c r="D25" s="15">
+        <f>IF(C25&gt;0, (B25-C25)/C25, 0)</f>
+        <v/>
+      </c>
+      <c r="E25" s="11">
+        <f>IF(B25&gt;C25, "OVER BUDGET", "OK")</f>
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A17:D20"/>
@@ -1355,6 +1446,11 @@
         <cfvo type="max"/>
         <color rgb="00638EC6"/>
       </dataBar>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B24:B25">
+    <cfRule type="expression" priority="2" dxfId="0">
+      <formula>B24&gt;C24</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1406,42 +1502,42 @@
           <t>Metric</t>
         </is>
       </c>
-      <c r="B5" s="14" t="inlineStr">
+      <c r="B5" s="16" t="inlineStr">
         <is>
           <t>FN1</t>
         </is>
       </c>
-      <c r="C5" s="14" t="inlineStr">
+      <c r="C5" s="16" t="inlineStr">
         <is>
           <t>FN2</t>
         </is>
       </c>
-      <c r="D5" s="14" t="inlineStr">
+      <c r="D5" s="16" t="inlineStr">
         <is>
           <t>FN3</t>
         </is>
       </c>
-      <c r="E5" s="14" t="inlineStr">
+      <c r="E5" s="16" t="inlineStr">
         <is>
           <t>FN4</t>
         </is>
       </c>
-      <c r="F5" s="14" t="inlineStr">
+      <c r="F5" s="16" t="inlineStr">
         <is>
           <t>FN5</t>
         </is>
       </c>
-      <c r="G5" s="14" t="inlineStr">
+      <c r="G5" s="16" t="inlineStr">
         <is>
           <t>FN6</t>
         </is>
       </c>
-      <c r="H5" s="14" t="inlineStr">
+      <c r="H5" s="16" t="inlineStr">
         <is>
           <t>FN7</t>
         </is>
       </c>
-      <c r="I5" s="14" t="inlineStr">
+      <c r="I5" s="16" t="inlineStr">
         <is>
           <t>FN8</t>
         </is>
@@ -1486,7 +1582,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="15" t="inlineStr">
+      <c r="A11" s="17" t="inlineStr">
         <is>
           <t>PART A</t>
         </is>
@@ -1498,35 +1594,35 @@
           <t>Gross Requirement</t>
         </is>
       </c>
-      <c r="B12" s="16">
+      <c r="B12" s="18">
         <f>$B$6</f>
         <v/>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="18">
         <f>$B$6</f>
         <v/>
       </c>
-      <c r="D12" s="16">
+      <c r="D12" s="18">
         <f>$B$6</f>
         <v/>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="18">
         <f>$B$6</f>
         <v/>
       </c>
-      <c r="F12" s="16">
+      <c r="F12" s="18">
         <f>$B$6</f>
         <v/>
       </c>
-      <c r="G12" s="16">
+      <c r="G12" s="18">
         <f>$B$6</f>
         <v/>
       </c>
-      <c r="H12" s="16">
+      <c r="H12" s="18">
         <f>$B$6</f>
         <v/>
       </c>
-      <c r="I12" s="16">
+      <c r="I12" s="18">
         <f>$B$6</f>
         <v/>
       </c>
@@ -1568,35 +1664,35 @@
           <t>Projected Inventory</t>
         </is>
       </c>
-      <c r="B14" s="17">
+      <c r="B14" s="19">
         <f>0.0+B13-B12</f>
         <v/>
       </c>
-      <c r="C14" s="17">
+      <c r="C14" s="19">
         <f>B14+C13-C12</f>
         <v/>
       </c>
-      <c r="D14" s="17">
+      <c r="D14" s="19">
         <f>C14+D13-D12</f>
         <v/>
       </c>
-      <c r="E14" s="17">
+      <c r="E14" s="19">
         <f>D14+E13-E12</f>
         <v/>
       </c>
-      <c r="F14" s="17">
+      <c r="F14" s="19">
         <f>E14+F13-F12</f>
         <v/>
       </c>
-      <c r="G14" s="17">
+      <c r="G14" s="19">
         <f>F14+G13-G12</f>
         <v/>
       </c>
-      <c r="H14" s="17">
+      <c r="H14" s="19">
         <f>G14+H13-H12</f>
         <v/>
       </c>
-      <c r="I14" s="17">
+      <c r="I14" s="19">
         <f>H14+I13-I12</f>
         <v/>
       </c>
@@ -1607,41 +1703,41 @@
           <t>Net Deficit (if negative)</t>
         </is>
       </c>
-      <c r="B15" s="18">
+      <c r="B15" s="20">
         <f>IF(B14&lt;0, -B14, 0)</f>
         <v/>
       </c>
-      <c r="C15" s="18">
+      <c r="C15" s="20">
         <f>IF(C14&lt;0, -C14, 0)</f>
         <v/>
       </c>
-      <c r="D15" s="18">
+      <c r="D15" s="20">
         <f>IF(D14&lt;0, -D14, 0)</f>
         <v/>
       </c>
-      <c r="E15" s="18">
+      <c r="E15" s="20">
         <f>IF(E14&lt;0, -E14, 0)</f>
         <v/>
       </c>
-      <c r="F15" s="18">
+      <c r="F15" s="20">
         <f>IF(F14&lt;0, -F14, 0)</f>
         <v/>
       </c>
-      <c r="G15" s="18">
+      <c r="G15" s="20">
         <f>IF(G14&lt;0, -G14, 0)</f>
         <v/>
       </c>
-      <c r="H15" s="18">
+      <c r="H15" s="20">
         <f>IF(H14&lt;0, -H14, 0)</f>
         <v/>
       </c>
-      <c r="I15" s="18">
+      <c r="I15" s="20">
         <f>IF(I14&lt;0, -I14, 0)</f>
         <v/>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="19" t="inlineStr">
+      <c r="A17" s="21" t="inlineStr">
         <is>
           <t>ORDERS FOR PART A</t>
         </is>
@@ -1741,7 +1837,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="15" t="inlineStr">
+      <c r="A23" s="17" t="inlineStr">
         <is>
           <t>PART B</t>
         </is>
@@ -1753,35 +1849,35 @@
           <t>Gross Requirement</t>
         </is>
       </c>
-      <c r="B24" s="16">
+      <c r="B24" s="18">
         <f>$B$6</f>
         <v/>
       </c>
-      <c r="C24" s="16">
+      <c r="C24" s="18">
         <f>$B$6</f>
         <v/>
       </c>
-      <c r="D24" s="16">
+      <c r="D24" s="18">
         <f>$B$6</f>
         <v/>
       </c>
-      <c r="E24" s="16">
+      <c r="E24" s="18">
         <f>$B$6</f>
         <v/>
       </c>
-      <c r="F24" s="16">
+      <c r="F24" s="18">
         <f>$B$6</f>
         <v/>
       </c>
-      <c r="G24" s="16">
+      <c r="G24" s="18">
         <f>$B$6</f>
         <v/>
       </c>
-      <c r="H24" s="16">
+      <c r="H24" s="18">
         <f>$B$6</f>
         <v/>
       </c>
-      <c r="I24" s="16">
+      <c r="I24" s="18">
         <f>$B$6</f>
         <v/>
       </c>
@@ -1823,35 +1919,35 @@
           <t>Projected Inventory</t>
         </is>
       </c>
-      <c r="B26" s="17">
+      <c r="B26" s="19">
         <f>0.0+B25-B24</f>
         <v/>
       </c>
-      <c r="C26" s="17">
+      <c r="C26" s="19">
         <f>B26+C25-C24</f>
         <v/>
       </c>
-      <c r="D26" s="17">
+      <c r="D26" s="19">
         <f>C26+D25-D24</f>
         <v/>
       </c>
-      <c r="E26" s="17">
+      <c r="E26" s="19">
         <f>D26+E25-E24</f>
         <v/>
       </c>
-      <c r="F26" s="17">
+      <c r="F26" s="19">
         <f>E26+F25-F24</f>
         <v/>
       </c>
-      <c r="G26" s="17">
+      <c r="G26" s="19">
         <f>F26+G25-G24</f>
         <v/>
       </c>
-      <c r="H26" s="17">
+      <c r="H26" s="19">
         <f>G26+H25-H24</f>
         <v/>
       </c>
-      <c r="I26" s="17">
+      <c r="I26" s="19">
         <f>H26+I25-I24</f>
         <v/>
       </c>
@@ -1862,41 +1958,41 @@
           <t>Net Deficit (if negative)</t>
         </is>
       </c>
-      <c r="B27" s="18">
+      <c r="B27" s="20">
         <f>IF(B26&lt;0, -B26, 0)</f>
         <v/>
       </c>
-      <c r="C27" s="18">
+      <c r="C27" s="20">
         <f>IF(C26&lt;0, -C26, 0)</f>
         <v/>
       </c>
-      <c r="D27" s="18">
+      <c r="D27" s="20">
         <f>IF(D26&lt;0, -D26, 0)</f>
         <v/>
       </c>
-      <c r="E27" s="18">
+      <c r="E27" s="20">
         <f>IF(E26&lt;0, -E26, 0)</f>
         <v/>
       </c>
-      <c r="F27" s="18">
+      <c r="F27" s="20">
         <f>IF(F26&lt;0, -F26, 0)</f>
         <v/>
       </c>
-      <c r="G27" s="18">
+      <c r="G27" s="20">
         <f>IF(G26&lt;0, -G26, 0)</f>
         <v/>
       </c>
-      <c r="H27" s="18">
+      <c r="H27" s="20">
         <f>IF(H26&lt;0, -H26, 0)</f>
         <v/>
       </c>
-      <c r="I27" s="18">
+      <c r="I27" s="20">
         <f>IF(I26&lt;0, -I26, 0)</f>
         <v/>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="19" t="inlineStr">
+      <c r="A29" s="21" t="inlineStr">
         <is>
           <t>ORDERS FOR PART B</t>
         </is>
@@ -2028,12 +2124,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B14:I14">
-    <cfRule type="expression" priority="1" dxfId="0">
+    <cfRule type="expression" priority="1" dxfId="1">
       <formula>B14&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26:I26">
-    <cfRule type="expression" priority="2" dxfId="0">
+    <cfRule type="expression" priority="2" dxfId="1">
       <formula>B26&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2264,44 +2360,44 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="19" t="inlineStr">
+      <c r="A9" s="21" t="inlineStr">
         <is>
           <t>TOTAL SPEND</t>
         </is>
       </c>
-      <c r="B9" s="20">
+      <c r="B9" s="22">
         <f>SUM(B6:B8)</f>
         <v/>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="22">
         <f>SUM(C6:C8)</f>
         <v/>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="22">
         <f>SUM(D6:D8)</f>
         <v/>
       </c>
-      <c r="E9" s="20">
+      <c r="E9" s="22">
         <f>SUM(E6:E8)</f>
         <v/>
       </c>
-      <c r="F9" s="20">
+      <c r="F9" s="22">
         <f>SUM(F6:F8)</f>
         <v/>
       </c>
-      <c r="G9" s="20">
+      <c r="G9" s="22">
         <f>SUM(G6:G8)</f>
         <v/>
       </c>
-      <c r="H9" s="20">
+      <c r="H9" s="22">
         <f>SUM(H6:H8)</f>
         <v/>
       </c>
-      <c r="I9" s="20">
+      <c r="I9" s="22">
         <f>SUM(I6:I8)</f>
         <v/>
       </c>
-      <c r="J9" s="21">
+      <c r="J9" s="23">
         <f>SUM(B9:I9)</f>
         <v/>
       </c>
@@ -2319,7 +2415,7 @@
           <t>Total Budget</t>
         </is>
       </c>
-      <c r="B30" s="22" t="n">
+      <c r="B30" s="24" t="n">
         <v>100000</v>
       </c>
     </row>
@@ -2340,7 +2436,7 @@
           <t>Remaining Budget</t>
         </is>
       </c>
-      <c r="B32" s="20">
+      <c r="B32" s="22">
         <f>B30-B31</f>
         <v/>
       </c>

--- a/Purchasing Role/Purchasing_Dashboard.xlsx
+++ b/Purchasing Role/Purchasing_Dashboard.xlsx
@@ -1284,7 +1284,7 @@
         </is>
       </c>
       <c r="B5" s="8" t="n">
-        <v>56542</v>
+        <v>24244</v>
       </c>
     </row>
     <row r="6">
@@ -1294,7 +1294,7 @@
         </is>
       </c>
       <c r="B6" s="8" t="n">
-        <v>30422</v>
+        <v>3572</v>
       </c>
     </row>
     <row r="7">
